--- a/other/langage.xlsx
+++ b/other/langage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\デスクトップ\git-simple-translate\simple-translate\_locales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\デスクトップ\git-simple-translate\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="450" windowWidth="19200" windowHeight="11325"/>
+    <workbookView xWindow="4035" yWindow="450" windowWidth="19200" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>アイスランド語</t>
   </si>
@@ -992,6 +992,10 @@
   </si>
   <si>
     <t>中国語(簡体)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列9</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1060,7 +1064,31 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="FOT-ニューロダン Pro M"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1253,28 +1281,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:H105" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:H105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:I105" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:I105"/>
   <sortState ref="A2:H105">
     <sortCondition ref="D1:D105"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="列1" dataDxfId="5"/>
-    <tableColumn id="2" name="列2" dataDxfId="4"/>
-    <tableColumn id="3" name="列3" dataDxfId="3"/>
-    <tableColumn id="4" name="列4" dataDxfId="2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="列1" dataDxfId="6"/>
+    <tableColumn id="2" name="列2" dataDxfId="5"/>
+    <tableColumn id="3" name="列3" dataDxfId="4"/>
+    <tableColumn id="4" name="列4" dataDxfId="3"/>
     <tableColumn id="5" name="列5">
       <calculatedColumnFormula>"&lt;optionvalue="""&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/option&gt;"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="列6">
       <calculatedColumnFormula>"&lt;option value="""&amp;C2&amp;"""&gt;"&amp;D2&amp;"&lt;/option&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="列7" dataDxfId="0">
+    <tableColumn id="7" name="列7" dataDxfId="2">
       <calculatedColumnFormula>C2&amp;":"&amp;D2&amp;", "</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="列8" dataDxfId="1">
       <calculatedColumnFormula>C2&amp;":"&amp;B2&amp;", "</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" name="列9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1543,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="21" x14ac:dyDescent="0.45"/>
@@ -1560,7 +1589,7 @@
     <col min="9" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>309</v>
       </c>
@@ -1585,8 +1614,11 @@
       <c r="H1" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -1600,23 +1632,24 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="E2:E33" si="0">"&lt;optionvalue="""&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/option&gt;"</f>
         <v>&lt;optionvalue="af"&gt;アフリカーンス語&lt;/option&gt;</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>"&lt;option value="""&amp;C2&amp;"""&gt;"&amp;D2&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="F2:F33" si="1">"&lt;option value="""&amp;C2&amp;"""&gt;"&amp;D2&amp;"&lt;/option&gt;"</f>
         <v>&lt;option value="af"&gt;Afrikaans&lt;/option&gt;</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>C2&amp;":"&amp;D2&amp;", "</f>
+        <f t="shared" ref="G2:G33" si="2">C2&amp;":"&amp;D2&amp;", "</f>
         <v xml:space="preserve">af:Afrikaans, </v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>C2&amp;":"&amp;B2&amp;", "</f>
+        <f t="shared" ref="H2:H33" si="3">C2&amp;":"&amp;B2&amp;", "</f>
         <v xml:space="preserve">af:アフリカーンス語, </v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -1630,23 +1663,24 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C3&amp;"""&gt;"&amp;B3&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="sq"&gt;アルバニア語&lt;/option&gt;</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>"&lt;option value="""&amp;C3&amp;"""&gt;"&amp;D3&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="sq"&gt;Albanian&lt;/option&gt;</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>C3&amp;":"&amp;D3&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">sq:Albanian, </v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>C3&amp;":"&amp;B3&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">sq:アルバニア語, </v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -1660,23 +1694,24 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C4&amp;"""&gt;"&amp;B4&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="am"&gt;アムハラ語&lt;/option&gt;</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>"&lt;option value="""&amp;C4&amp;"""&gt;"&amp;D4&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="am"&gt;Amharic&lt;/option&gt;</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>C4&amp;":"&amp;D4&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">am:Amharic, </v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>C4&amp;":"&amp;B4&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">am:アムハラ語, </v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -1690,23 +1725,24 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C5&amp;"""&gt;"&amp;B5&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="ar"&gt;アラビア語&lt;/option&gt;</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>"&lt;option value="""&amp;C5&amp;"""&gt;"&amp;D5&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="ar"&gt;Arabic&lt;/option&gt;</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>C5&amp;":"&amp;D5&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ar:Arabic, </v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>C5&amp;":"&amp;B5&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">ar:アラビア語, </v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -1720,23 +1756,24 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C6&amp;"""&gt;"&amp;B6&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="hy"&gt;アルメニア語&lt;/option&gt;</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>"&lt;option value="""&amp;C6&amp;"""&gt;"&amp;D6&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="hy"&gt;Armenian&lt;/option&gt;</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>C6&amp;":"&amp;D6&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">hy:Armenian, </v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>C6&amp;":"&amp;B6&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">hy:アルメニア語, </v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1750,23 +1787,24 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C7&amp;"""&gt;"&amp;B7&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="az"&gt;アゼルバイジャン語&lt;/option&gt;</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>"&lt;option value="""&amp;C7&amp;"""&gt;"&amp;D7&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="az"&gt;Azerbaijani&lt;/option&gt;</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>C7&amp;":"&amp;D7&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">az:Azerbaijani, </v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>C7&amp;":"&amp;B7&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">az:アゼルバイジャン語, </v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>65</v>
       </c>
@@ -1780,23 +1818,24 @@
         <v>193</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C8&amp;"""&gt;"&amp;B8&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="eu"&gt;バスク語&lt;/option&gt;</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>"&lt;option value="""&amp;C8&amp;"""&gt;"&amp;D8&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="eu"&gt;Basque&lt;/option&gt;</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>C8&amp;":"&amp;D8&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">eu:Basque, </v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>C8&amp;":"&amp;B8&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">eu:バスク語, </v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>76</v>
       </c>
@@ -1810,23 +1849,24 @@
         <v>226</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C9&amp;"""&gt;"&amp;B9&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="be"&gt;ベラルーシ語&lt;/option&gt;</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>"&lt;option value="""&amp;C9&amp;"""&gt;"&amp;D9&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="be"&gt;Belarusian&lt;/option&gt;</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>C9&amp;":"&amp;D9&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">be:Belarusian, </v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>C9&amp;":"&amp;B9&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">be:ベラルーシ語, </v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>78</v>
       </c>
@@ -1840,23 +1880,24 @@
         <v>232</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C10&amp;"""&gt;"&amp;B10&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="bn"&gt;ベンガル語&lt;/option&gt;</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>"&lt;option value="""&amp;C10&amp;"""&gt;"&amp;D10&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="bn"&gt;Bengali&lt;/option&gt;</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>C10&amp;":"&amp;D10&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">bn:Bengali, </v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>C10&amp;":"&amp;B10&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">bn:ベンガル語, </v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>80</v>
       </c>
@@ -1870,23 +1911,24 @@
         <v>238</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C11&amp;"""&gt;"&amp;B11&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="bs"&gt;ボスニア語&lt;/option&gt;</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>"&lt;option value="""&amp;C11&amp;"""&gt;"&amp;D11&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="bs"&gt;Bosnian&lt;/option&gt;</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>C11&amp;":"&amp;D11&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">bs:Bosnian, </v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>C11&amp;":"&amp;B11&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">bs:ボスニア語, </v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>73</v>
       </c>
@@ -1900,23 +1942,24 @@
         <v>217</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C12&amp;"""&gt;"&amp;B12&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="bg"&gt;ブルガリア語&lt;/option&gt;</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>"&lt;option value="""&amp;C12&amp;"""&gt;"&amp;D12&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="bg"&gt;Bulgarian&lt;/option&gt;</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>C12&amp;":"&amp;D12&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">bg:Bulgarian, </v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>C12&amp;":"&amp;B12&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">bg:ブルガリア語, </v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -1930,23 +1973,24 @@
         <v>62</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C13&amp;"""&gt;"&amp;B13&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="ca"&gt;カタルーニャ語&lt;/option&gt;</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>"&lt;option value="""&amp;C13&amp;"""&gt;"&amp;D13&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="ca"&gt;Catalan&lt;/option&gt;</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>C13&amp;":"&amp;D13&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ca:Catalan, </v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>C13&amp;":"&amp;B13&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">ca:カタルーニャ語, </v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>46</v>
       </c>
@@ -1960,23 +2004,26 @@
         <v>136</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C14&amp;"""&gt;"&amp;B14&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="ceb"&gt;セブアノ語&lt;/option&gt;</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>"&lt;option value="""&amp;C14&amp;"""&gt;"&amp;D14&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="ceb"&gt;Cebuano&lt;/option&gt;</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>C14&amp;":"&amp;D14&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ceb:Cebuano, </v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>C14&amp;":"&amp;B14&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">ceb:セブアノ語, </v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>55</v>
       </c>
@@ -1990,23 +2037,26 @@
         <v>163</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C15&amp;"""&gt;"&amp;B15&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="ny"&gt;チェワ語&lt;/option&gt;</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>"&lt;option value="""&amp;C15&amp;"""&gt;"&amp;D15&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="ny"&gt;Chewa&lt;/option&gt;</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>C15&amp;":"&amp;D15&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ny:Chewa, </v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>C15&amp;":"&amp;B15&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">ny:チェワ語, </v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>102</v>
       </c>
@@ -2020,23 +2070,24 @@
         <v>306</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C16&amp;"""&gt;"&amp;B16&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="zh-CN"&gt;中国語(簡体)&lt;/option&gt;</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>"&lt;option value="""&amp;C16&amp;"""&gt;"&amp;D16&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="zh-CN"&gt;Chinese (PRC)&lt;/option&gt;</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>C16&amp;":"&amp;D16&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">zh-CN:Chinese (PRC), </v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>C16&amp;":"&amp;B16&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">zh-CN:中国語(簡体), </v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>103</v>
       </c>
@@ -2050,23 +2101,24 @@
         <v>307</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C17&amp;"""&gt;"&amp;B17&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="zh-TW"&gt;中国語(繁体)&lt;/option&gt;</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>"&lt;option value="""&amp;C17&amp;"""&gt;"&amp;D17&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="zh-TW"&gt;Chinese (Taiwan)&lt;/option&gt;</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>C17&amp;":"&amp;D17&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">zh-TW:Chinese (Taiwan), </v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>C17&amp;":"&amp;B17&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">zh-TW:中国語(繁体), </v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -2080,23 +2132,24 @@
         <v>91</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C18&amp;"""&gt;"&amp;B18&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="co"&gt;コルシカ語&lt;/option&gt;</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>"&lt;option value="""&amp;C18&amp;"""&gt;"&amp;D18&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="co"&gt;Corsican&lt;/option&gt;</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>C18&amp;":"&amp;D18&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">co:Corsican, </v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>C18&amp;":"&amp;B18&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">co:コルシカ語, </v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>29</v>
       </c>
@@ -2110,23 +2163,24 @@
         <v>85</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C19&amp;"""&gt;"&amp;B19&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="hr"&gt;クロアチア語&lt;/option&gt;</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f>"&lt;option value="""&amp;C19&amp;"""&gt;"&amp;D19&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="hr"&gt;Croatian&lt;/option&gt;</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>C19&amp;":"&amp;D19&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">hr:Croatian, </v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>C19&amp;":"&amp;B19&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">hr:クロアチア語, </v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>54</v>
       </c>
@@ -2140,23 +2194,24 @@
         <v>160</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C20&amp;"""&gt;"&amp;B20&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="cs"&gt;チェコ語&lt;/option&gt;</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>"&lt;option value="""&amp;C20&amp;"""&gt;"&amp;D20&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="cs"&gt;Czech&lt;/option&gt;</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>C20&amp;":"&amp;D20&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cs:Czech, </v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>C20&amp;":"&amp;B20&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">cs:チェコ語, </v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>57</v>
       </c>
@@ -2170,23 +2225,24 @@
         <v>169</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C21&amp;"""&gt;"&amp;B21&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="da"&gt;デンマーク語&lt;/option&gt;</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f>"&lt;option value="""&amp;C21&amp;"""&gt;"&amp;D21&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="da"&gt;Danish&lt;/option&gt;</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>C21&amp;":"&amp;D21&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">da:Danish, </v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>C21&amp;":"&amp;B21&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">da:デンマーク語, </v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2200,23 +2256,24 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C22&amp;"""&gt;"&amp;B22&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="nl"&gt;オランダ語&lt;/option&gt;</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>"&lt;option value="""&amp;C22&amp;"""&gt;"&amp;D22&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="nl"&gt;Dutch&lt;/option&gt;</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>C22&amp;":"&amp;D22&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">nl:Dutch, </v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>C22&amp;":"&amp;B22&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">nl:オランダ語, </v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>100</v>
       </c>
@@ -2230,23 +2287,24 @@
         <v>298</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C23&amp;"""&gt;"&amp;B23&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="en"&gt;英語&lt;/option&gt;</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f>"&lt;option value="""&amp;C23&amp;"""&gt;"&amp;D23&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="en"&gt;English&lt;/option&gt;</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>C23&amp;":"&amp;D23&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">en:English, </v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>C23&amp;":"&amp;B23&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">en:英語, </v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -2260,23 +2318,24 @@
         <v>53</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C24&amp;"""&gt;"&amp;B24&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="eo"&gt;エスペラント語&lt;/option&gt;</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f>"&lt;option value="""&amp;C24&amp;"""&gt;"&amp;D24&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="eo"&gt;Esperanto&lt;/option&gt;</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>C24&amp;":"&amp;D24&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">eo:Esperanto, </v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>C24&amp;":"&amp;B24&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">eo:エスペラント語, </v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>17</v>
       </c>
@@ -2290,23 +2349,24 @@
         <v>50</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C25&amp;"""&gt;"&amp;B25&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="et"&gt;エストニア語&lt;/option&gt;</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f>"&lt;option value="""&amp;C25&amp;"""&gt;"&amp;D25&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="et"&gt;Estonian&lt;/option&gt;</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>C25&amp;":"&amp;D25&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">et:Estonian, </v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>C25&amp;":"&amp;B25&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">et:エストニア語, </v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>70</v>
       </c>
@@ -2320,23 +2380,24 @@
         <v>208</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C26&amp;"""&gt;"&amp;B26&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="fi"&gt;フィンランド語&lt;/option&gt;</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f>"&lt;option value="""&amp;C26&amp;"""&gt;"&amp;D26&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="fi"&gt;Finnish&lt;/option&gt;</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>C26&amp;":"&amp;D26&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">fi:Finnish, </v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>C26&amp;":"&amp;B26&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">fi:フィンランド語, </v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>71</v>
       </c>
@@ -2350,23 +2411,24 @@
         <v>211</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C27&amp;"""&gt;"&amp;B27&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="fr"&gt;フランス語&lt;/option&gt;</v>
       </c>
       <c r="F27" s="2" t="str">
-        <f>"&lt;option value="""&amp;C27&amp;"""&gt;"&amp;D27&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="fr"&gt;French&lt;/option&gt;</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>C27&amp;":"&amp;D27&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">fr:French, </v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>C27&amp;":"&amp;B27&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">fr:フランス語, </v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>72</v>
       </c>
@@ -2380,23 +2442,24 @@
         <v>214</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C28&amp;"""&gt;"&amp;B28&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="fy"&gt;フリジア語&lt;/option&gt;</v>
       </c>
       <c r="F28" s="2" t="str">
-        <f>"&lt;option value="""&amp;C28&amp;"""&gt;"&amp;D28&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="fy"&gt;Frisian&lt;/option&gt;</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>C28&amp;":"&amp;D28&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">fy:Frisian, </v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>C28&amp;":"&amp;B28&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">fy:フリジア語, </v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -2410,23 +2473,24 @@
         <v>65</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C29&amp;"""&gt;"&amp;B29&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="gl"&gt;ガリシア語&lt;/option&gt;</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f>"&lt;option value="""&amp;C29&amp;"""&gt;"&amp;D29&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="gl"&gt;Galician&lt;/option&gt;</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>C29&amp;":"&amp;D29&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">gl:Galician, </v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>C29&amp;":"&amp;B29&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">gl:ガリシア語, </v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>34</v>
       </c>
@@ -2440,23 +2504,24 @@
         <v>100</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C30&amp;"""&gt;"&amp;B30&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="ka"&gt;ジョージア(グルジア)語&lt;/option&gt;</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f>"&lt;option value="""&amp;C30&amp;"""&gt;"&amp;D30&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="ka"&gt;Georgian&lt;/option&gt;</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>C30&amp;":"&amp;D30&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ka:Georgian, </v>
       </c>
       <c r="H30" s="1" t="str">
-        <f>C30&amp;":"&amp;B30&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">ka:ジョージア(グルジア)語, </v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>58</v>
       </c>
@@ -2470,23 +2535,24 @@
         <v>172</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C31&amp;"""&gt;"&amp;B31&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="de"&gt;ドイツ語&lt;/option&gt;</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f>"&lt;option value="""&amp;C31&amp;"""&gt;"&amp;D31&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="de"&gt;German&lt;/option&gt;</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>C31&amp;":"&amp;D31&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">de:German, </v>
       </c>
       <c r="H31" s="1" t="str">
-        <f>C31&amp;":"&amp;B31&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">de:ドイツ語, </v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>24</v>
       </c>
@@ -2500,23 +2566,24 @@
         <v>315</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C32&amp;"""&gt;"&amp;B32&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="el"&gt;ギリシャ語&lt;/option&gt;</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f>"&lt;option value="""&amp;C32&amp;"""&gt;"&amp;D32&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="el"&gt;Greek&lt;/option&gt;</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>C32&amp;":"&amp;D32&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">el:Greek, </v>
       </c>
       <c r="H32" s="1" t="str">
-        <f>C32&amp;":"&amp;B32&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">el:ギリシャ語, </v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -2530,23 +2597,24 @@
         <v>76</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C33&amp;"""&gt;"&amp;B33&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;optionvalue="gu"&gt;グジャラト語&lt;/option&gt;</v>
       </c>
       <c r="F33" s="2" t="str">
-        <f>"&lt;option value="""&amp;C33&amp;"""&gt;"&amp;D33&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value="gu"&gt;Gujarati&lt;/option&gt;</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>C33&amp;":"&amp;D33&amp;", "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">gu:Gujarati, </v>
       </c>
       <c r="H33" s="1" t="str">
-        <f>C33&amp;":"&amp;B33&amp;", "</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">gu:グジャラト語, </v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>62</v>
       </c>
@@ -2560,23 +2628,24 @@
         <v>184</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C34&amp;"""&gt;"&amp;B34&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="E34:E65" si="4">"&lt;optionvalue="""&amp;C34&amp;"""&gt;"&amp;B34&amp;"&lt;/option&gt;"</f>
         <v>&lt;optionvalue="ht"&gt;ハイチ語&lt;/option&gt;</v>
       </c>
       <c r="F34" s="2" t="str">
-        <f>"&lt;option value="""&amp;C34&amp;"""&gt;"&amp;D34&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="F34:F65" si="5">"&lt;option value="""&amp;C34&amp;"""&gt;"&amp;D34&amp;"&lt;/option&gt;"</f>
         <v>&lt;option value="ht"&gt;Haitian&lt;/option&gt;</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>C34&amp;":"&amp;D34&amp;", "</f>
+        <f t="shared" ref="G34:G65" si="6">C34&amp;":"&amp;D34&amp;", "</f>
         <v xml:space="preserve">ht:Haitian, </v>
       </c>
       <c r="H34" s="1" t="str">
-        <f>C34&amp;":"&amp;B34&amp;", "</f>
+        <f t="shared" ref="H34:H65" si="7">C34&amp;":"&amp;B34&amp;", "</f>
         <v xml:space="preserve">ht:ハイチ語, </v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>63</v>
       </c>
@@ -2590,23 +2659,24 @@
         <v>187</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C35&amp;"""&gt;"&amp;B35&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ha"&gt;ハウサ語&lt;/option&gt;</v>
       </c>
       <c r="F35" s="2" t="str">
-        <f>"&lt;option value="""&amp;C35&amp;"""&gt;"&amp;D35&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ha"&gt;Hausa&lt;/option&gt;</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>C35&amp;":"&amp;D35&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ha:Hausa, </v>
       </c>
       <c r="H35" s="1" t="str">
-        <f>C35&amp;":"&amp;B35&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ha:ハウサ語, </v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>66</v>
       </c>
@@ -2620,23 +2690,26 @@
         <v>196</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C36&amp;"""&gt;"&amp;B36&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="haw"&gt;ハワイ語&lt;/option&gt;</v>
       </c>
       <c r="F36" s="2" t="str">
-        <f>"&lt;option value="""&amp;C36&amp;"""&gt;"&amp;D36&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="haw"&gt;Hawaiian&lt;/option&gt;</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>C36&amp;":"&amp;D36&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">haw:Hawaiian, </v>
       </c>
       <c r="H36" s="1" t="str">
-        <f>C36&amp;":"&amp;B36&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">haw:ハワイ語, </v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>75</v>
       </c>
@@ -2650,23 +2723,24 @@
         <v>223</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C37&amp;"""&gt;"&amp;B37&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="he"&gt;ヘブライ語&lt;/option&gt;</v>
       </c>
       <c r="F37" s="2" t="str">
-        <f>"&lt;option value="""&amp;C37&amp;"""&gt;"&amp;D37&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="he"&gt;Hebrew&lt;/option&gt;</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>C37&amp;":"&amp;D37&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">he:Hebrew, </v>
       </c>
       <c r="H37" s="1" t="str">
-        <f>C37&amp;":"&amp;B37&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">he:ヘブライ語, </v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>69</v>
       </c>
@@ -2680,23 +2754,24 @@
         <v>205</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C38&amp;"""&gt;"&amp;B38&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="hi"&gt;ヒンディー語&lt;/option&gt;</v>
       </c>
       <c r="F38" s="2" t="str">
-        <f>"&lt;option value="""&amp;C38&amp;"""&gt;"&amp;D38&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="hi"&gt;Hindi&lt;/option&gt;</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>C38&amp;":"&amp;D38&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">hi:Hindi, </v>
       </c>
       <c r="H38" s="1" t="str">
-        <f>C38&amp;":"&amp;B38&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">hi:ヒンディー語, </v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>67</v>
       </c>
@@ -2710,23 +2785,24 @@
         <v>199</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C39&amp;"""&gt;"&amp;B39&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="hu"&gt;ハンガリー語&lt;/option&gt;</v>
       </c>
       <c r="F39" s="2" t="str">
-        <f>"&lt;option value="""&amp;C39&amp;"""&gt;"&amp;D39&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="hu"&gt;Hungarian&lt;/option&gt;</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>C39&amp;":"&amp;D39&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">hu:Hungarian, </v>
       </c>
       <c r="H39" s="1" t="str">
-        <f>C39&amp;":"&amp;B39&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">hu:ハンガリー語, </v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -2740,23 +2816,24 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C40&amp;"""&gt;"&amp;B40&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="is"&gt;アイスランド語&lt;/option&gt;</v>
       </c>
       <c r="F40" s="2" t="str">
-        <f>"&lt;option value="""&amp;C40&amp;"""&gt;"&amp;D40&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="is"&gt;Icelandic&lt;/option&gt;</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>C40&amp;":"&amp;D40&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">is:Icelandic, </v>
       </c>
       <c r="H40" s="1" t="str">
-        <f>C40&amp;":"&amp;B40&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">is:アイスランド語, </v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>11</v>
       </c>
@@ -2770,23 +2847,26 @@
         <v>32</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C41&amp;"""&gt;"&amp;B41&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ig"&gt;イボ語&lt;/option&gt;</v>
       </c>
       <c r="F41" s="2" t="str">
-        <f>"&lt;option value="""&amp;C41&amp;"""&gt;"&amp;D41&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ig"&gt;Igbo&lt;/option&gt;</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>C41&amp;":"&amp;D41&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ig:Igbo, </v>
       </c>
       <c r="H41" s="1" t="str">
-        <f>C41&amp;":"&amp;B41&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ig:イボ語, </v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -2800,23 +2880,24 @@
         <v>35</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C42&amp;"""&gt;"&amp;B42&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="id"&gt;インドネシア語&lt;/option&gt;</v>
       </c>
       <c r="F42" s="2" t="str">
-        <f>"&lt;option value="""&amp;C42&amp;"""&gt;"&amp;D42&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="id"&gt;Indonesian&lt;/option&gt;</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f>C42&amp;":"&amp;D42&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">id:Indonesian, </v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>C42&amp;":"&amp;B42&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">id:インドネシア語, </v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -2830,23 +2911,24 @@
         <v>5</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C43&amp;"""&gt;"&amp;B43&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ga"&gt;アイルランド語&lt;/option&gt;</v>
       </c>
       <c r="F43" s="2" t="str">
-        <f>"&lt;option value="""&amp;C43&amp;"""&gt;"&amp;D43&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ga"&gt;Irish&lt;/option&gt;</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>C43&amp;":"&amp;D43&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ga:Irish, </v>
       </c>
       <c r="H43" s="1" t="str">
-        <f>C43&amp;":"&amp;B43&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ga:アイルランド語, </v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -2860,23 +2942,24 @@
         <v>26</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C44&amp;"""&gt;"&amp;B44&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="it"&gt;イタリア語&lt;/option&gt;</v>
       </c>
       <c r="F44" s="2" t="str">
-        <f>"&lt;option value="""&amp;C44&amp;"""&gt;"&amp;D44&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="it"&gt;Italian&lt;/option&gt;</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>C44&amp;":"&amp;D44&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">it:Italian, </v>
       </c>
       <c r="H44" s="1" t="str">
-        <f>C44&amp;":"&amp;B44&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">it:イタリア語, </v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>104</v>
       </c>
@@ -2890,23 +2973,24 @@
         <v>304</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C45&amp;"""&gt;"&amp;B45&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ja"&gt;日本語&lt;/option&gt;</v>
       </c>
       <c r="F45" s="2" t="str">
-        <f>"&lt;option value="""&amp;C45&amp;"""&gt;"&amp;D45&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ja"&gt;Japanese&lt;/option&gt;</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>C45&amp;":"&amp;D45&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ja:Japanese, </v>
       </c>
       <c r="H45" s="1" t="str">
-        <f>C45&amp;":"&amp;B45&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ja:日本語, </v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>33</v>
       </c>
@@ -2920,23 +3004,26 @@
         <v>97</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C46&amp;"""&gt;"&amp;B46&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="jv"&gt;ジャワ語&lt;/option&gt;</v>
       </c>
       <c r="F46" s="2" t="str">
-        <f>"&lt;option value="""&amp;C46&amp;"""&gt;"&amp;D46&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="jv"&gt;Javanese&lt;/option&gt;</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>C46&amp;":"&amp;D46&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">jv:Javanese, </v>
       </c>
       <c r="H46" s="1" t="str">
-        <f>C46&amp;":"&amp;B46&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">jv:ジャワ語, </v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>23</v>
       </c>
@@ -2950,23 +3037,24 @@
         <v>68</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C47&amp;"""&gt;"&amp;B47&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="kn"&gt;カンナダ語&lt;/option&gt;</v>
       </c>
       <c r="F47" s="2" t="str">
-        <f>"&lt;option value="""&amp;C47&amp;"""&gt;"&amp;D47&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="kn"&gt;Kannada&lt;/option&gt;</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>C47&amp;":"&amp;D47&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">kn:Kannada, </v>
       </c>
       <c r="H47" s="1" t="str">
-        <f>C47&amp;":"&amp;B47&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">kn:カンナダ語, </v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>20</v>
       </c>
@@ -2980,23 +3068,24 @@
         <v>59</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C48&amp;"""&gt;"&amp;B48&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="kk"&gt;カザフ語&lt;/option&gt;</v>
       </c>
       <c r="F48" s="2" t="str">
-        <f>"&lt;option value="""&amp;C48&amp;"""&gt;"&amp;D48&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="kk"&gt;Kazakh&lt;/option&gt;</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>C48&amp;":"&amp;D48&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">kk:Kazakh, </v>
       </c>
       <c r="H48" s="1" t="str">
-        <f>C48&amp;":"&amp;B48&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">kk:カザフ語, </v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>27</v>
       </c>
@@ -3010,23 +3099,24 @@
         <v>79</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C49&amp;"""&gt;"&amp;B49&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="km"&gt;クメール語&lt;/option&gt;</v>
       </c>
       <c r="F49" s="2" t="str">
-        <f>"&lt;option value="""&amp;C49&amp;"""&gt;"&amp;D49&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="km"&gt;Khmer&lt;/option&gt;</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>C49&amp;":"&amp;D49&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">km:Khmer, </v>
       </c>
       <c r="H49" s="1" t="str">
-        <f>C49&amp;":"&amp;B49&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">km:クメール語, </v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>25</v>
       </c>
@@ -3040,23 +3130,24 @@
         <v>73</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C50&amp;"""&gt;"&amp;B50&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ky"&gt;キルギス語&lt;/option&gt;</v>
       </c>
       <c r="F50" s="2" t="str">
-        <f>"&lt;option value="""&amp;C50&amp;"""&gt;"&amp;D50&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ky"&gt;Kirghiz&lt;/option&gt;</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>C50&amp;":"&amp;D50&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ky:Kirghiz, </v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>C50&amp;":"&amp;B50&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ky:キルギス語, </v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>101</v>
       </c>
@@ -3070,23 +3161,24 @@
         <v>301</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C51&amp;"""&gt;"&amp;B51&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ko"&gt;韓国語&lt;/option&gt;</v>
       </c>
       <c r="F51" s="2" t="str">
-        <f>"&lt;option value="""&amp;C51&amp;"""&gt;"&amp;D51&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ko"&gt;Korean&lt;/option&gt;</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>C51&amp;":"&amp;D51&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ko:Korean, </v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>C51&amp;":"&amp;B51&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ko:韓国語, </v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>28</v>
       </c>
@@ -3100,23 +3192,24 @@
         <v>82</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C52&amp;"""&gt;"&amp;B52&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ku"&gt;クルド語&lt;/option&gt;</v>
       </c>
       <c r="F52" s="2" t="str">
-        <f>"&lt;option value="""&amp;C52&amp;"""&gt;"&amp;D52&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ku"&gt;Kurdish&lt;/option&gt;</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>C52&amp;":"&amp;D52&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ku:Kurdish, </v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>C52&amp;":"&amp;B52&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ku:クルド語, </v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>93</v>
       </c>
@@ -3130,23 +3223,24 @@
         <v>277</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C53&amp;"""&gt;"&amp;B53&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="lo"&gt;ラオ語&lt;/option&gt;</v>
       </c>
       <c r="F53" s="2" t="str">
-        <f>"&lt;option value="""&amp;C53&amp;"""&gt;"&amp;D53&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="lo"&gt;Laotian&lt;/option&gt;</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>C53&amp;":"&amp;D53&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">lo:Laotian, </v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>C53&amp;":"&amp;B53&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">lo:ラオ語, </v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>94</v>
       </c>
@@ -3160,23 +3254,24 @@
         <v>280</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C54&amp;"""&gt;"&amp;B54&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="la"&gt;ラテン語&lt;/option&gt;</v>
       </c>
       <c r="F54" s="2" t="str">
-        <f>"&lt;option value="""&amp;C54&amp;"""&gt;"&amp;D54&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="la"&gt;Latin&lt;/option&gt;</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>C54&amp;":"&amp;D54&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">la:Latin, </v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>C54&amp;":"&amp;B54&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">la:ラテン語, </v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>95</v>
       </c>
@@ -3190,23 +3285,24 @@
         <v>283</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C55&amp;"""&gt;"&amp;B55&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="lv"&gt;ラトビア語&lt;/option&gt;</v>
       </c>
       <c r="F55" s="2" t="str">
-        <f>"&lt;option value="""&amp;C55&amp;"""&gt;"&amp;D55&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="lv"&gt;Latvian&lt;/option&gt;</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>C55&amp;":"&amp;D55&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">lv:Latvian, </v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>C55&amp;":"&amp;B55&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">lv:ラトビア語, </v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>96</v>
       </c>
@@ -3220,23 +3316,24 @@
         <v>286</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C56&amp;"""&gt;"&amp;B56&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="lt"&gt;リトアニア語&lt;/option&gt;</v>
       </c>
       <c r="F56" s="2" t="str">
-        <f>"&lt;option value="""&amp;C56&amp;"""&gt;"&amp;D56&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="lt"&gt;Lithuanian&lt;/option&gt;</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>C56&amp;":"&amp;D56&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">lt:Lithuanian, </v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>C56&amp;":"&amp;B56&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">lt:リトアニア語, </v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>98</v>
       </c>
@@ -3250,23 +3347,24 @@
         <v>292</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C57&amp;"""&gt;"&amp;B57&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="lb"&gt;ルクセンブルク語&lt;/option&gt;</v>
       </c>
       <c r="F57" s="2" t="str">
-        <f>"&lt;option value="""&amp;C57&amp;"""&gt;"&amp;D57&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="lb"&gt;Luxembourgish&lt;/option&gt;</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>C57&amp;":"&amp;D57&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">lb:Luxembourgish, </v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>C57&amp;":"&amp;B57&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">lb:ルクセンブルク語, </v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>83</v>
       </c>
@@ -3280,23 +3378,24 @@
         <v>247</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C58&amp;"""&gt;"&amp;B58&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="mk"&gt;マケドニア語&lt;/option&gt;</v>
       </c>
       <c r="F58" s="2" t="str">
-        <f>"&lt;option value="""&amp;C58&amp;"""&gt;"&amp;D58&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="mk"&gt;Macedonian&lt;/option&gt;</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>C58&amp;":"&amp;D58&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">mk:Macedonian, </v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>C58&amp;":"&amp;B58&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">mk:マケドニア語, </v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>85</v>
       </c>
@@ -3310,23 +3409,24 @@
         <v>253</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C59&amp;"""&gt;"&amp;B59&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="mg"&gt;マラガシ語&lt;/option&gt;</v>
       </c>
       <c r="F59" s="2" t="str">
-        <f>"&lt;option value="""&amp;C59&amp;"""&gt;"&amp;D59&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="mg"&gt;Malagasy&lt;/option&gt;</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>C59&amp;":"&amp;D59&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">mg:Malagasy, </v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>C59&amp;":"&amp;B59&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">mg:マラガシ語, </v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>88</v>
       </c>
@@ -3340,23 +3440,24 @@
         <v>262</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C60&amp;"""&gt;"&amp;B60&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ms"&gt;マレー語&lt;/option&gt;</v>
       </c>
       <c r="F60" s="2" t="str">
-        <f>"&lt;option value="""&amp;C60&amp;"""&gt;"&amp;D60&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ms"&gt;Malay&lt;/option&gt;</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>C60&amp;":"&amp;D60&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ms:Malay, </v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>C60&amp;":"&amp;B60&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ms:マレー語, </v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>86</v>
       </c>
@@ -3370,23 +3471,24 @@
         <v>256</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C61&amp;"""&gt;"&amp;B61&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="ml"&gt;マラヤーラム語&lt;/option&gt;</v>
       </c>
       <c r="F61" s="2" t="str">
-        <f>"&lt;option value="""&amp;C61&amp;"""&gt;"&amp;D61&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="ml"&gt;Malayalam&lt;/option&gt;</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>C61&amp;":"&amp;D61&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">ml:Malayalam, </v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>C61&amp;":"&amp;B61&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ml:マラヤーラム語, </v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>87</v>
       </c>
@@ -3400,23 +3502,24 @@
         <v>259</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C62&amp;"""&gt;"&amp;B62&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="mt"&gt;マルタ語&lt;/option&gt;</v>
       </c>
       <c r="F62" s="2" t="str">
-        <f>"&lt;option value="""&amp;C62&amp;"""&gt;"&amp;D62&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="mt"&gt;Maltese&lt;/option&gt;</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>C62&amp;":"&amp;D62&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">mt:Maltese, </v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>C62&amp;":"&amp;B62&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">mt:マルタ語, </v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>82</v>
       </c>
@@ -3430,23 +3533,24 @@
         <v>244</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C63&amp;"""&gt;"&amp;B63&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="mi"&gt;マオリ語&lt;/option&gt;</v>
       </c>
       <c r="F63" s="2" t="str">
-        <f>"&lt;option value="""&amp;C63&amp;"""&gt;"&amp;D63&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="mi"&gt;Maori&lt;/option&gt;</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>C63&amp;":"&amp;D63&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">mi:Maori, </v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>C63&amp;":"&amp;B63&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">mi:マオリ語, </v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>84</v>
       </c>
@@ -3460,23 +3564,24 @@
         <v>250</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C64&amp;"""&gt;"&amp;B64&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="mr"&gt;マラーティー語&lt;/option&gt;</v>
       </c>
       <c r="F64" s="2" t="str">
-        <f>"&lt;option value="""&amp;C64&amp;"""&gt;"&amp;D64&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="mr"&gt;Marathi&lt;/option&gt;</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>C64&amp;":"&amp;D64&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">mr:Marathi, </v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>C64&amp;":"&amp;B64&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">mr:マラーティー語, </v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>90</v>
       </c>
@@ -3490,23 +3595,24 @@
         <v>268</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C65&amp;"""&gt;"&amp;B65&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;optionvalue="mn"&gt;モンゴル語&lt;/option&gt;</v>
       </c>
       <c r="F65" s="2" t="str">
-        <f>"&lt;option value="""&amp;C65&amp;"""&gt;"&amp;D65&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value="mn"&gt;Mongolian&lt;/option&gt;</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>C65&amp;":"&amp;D65&amp;", "</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">mn:Mongolian, </v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>C65&amp;":"&amp;B65&amp;", "</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">mn:モンゴル語, </v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>91</v>
       </c>
@@ -3520,23 +3626,26 @@
         <v>271</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C66&amp;"""&gt;"&amp;B66&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="E66:E97" si="8">"&lt;optionvalue="""&amp;C66&amp;"""&gt;"&amp;B66&amp;"&lt;/option&gt;"</f>
         <v>&lt;optionvalue="hmn"&gt;モン語&lt;/option&gt;</v>
       </c>
       <c r="F66" s="2" t="str">
-        <f>"&lt;option value="""&amp;C66&amp;"""&gt;"&amp;D66&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="F66:F97" si="9">"&lt;option value="""&amp;C66&amp;"""&gt;"&amp;D66&amp;"&lt;/option&gt;"</f>
         <v>&lt;option value="hmn"&gt;Monk&lt;/option&gt;</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>C66&amp;":"&amp;D66&amp;", "</f>
+        <f t="shared" ref="G66:G97" si="10">C66&amp;":"&amp;D66&amp;", "</f>
         <v xml:space="preserve">hmn:Monk, </v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>C66&amp;":"&amp;B66&amp;", "</f>
+        <f t="shared" ref="H66:H97" si="11">C66&amp;":"&amp;B66&amp;", "</f>
         <v xml:space="preserve">hmn:モン語, </v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>89</v>
       </c>
@@ -3550,23 +3659,24 @@
         <v>265</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C67&amp;"""&gt;"&amp;B67&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="my"&gt;ミャンマー語&lt;/option&gt;</v>
       </c>
       <c r="F67" s="2" t="str">
-        <f>"&lt;option value="""&amp;C67&amp;"""&gt;"&amp;D67&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="my"&gt;Myanmar&lt;/option&gt;</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>C67&amp;":"&amp;D67&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">my:Myanmar, </v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>C67&amp;":"&amp;B67&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">my:ミャンマー語, </v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>60</v>
       </c>
@@ -3580,23 +3690,24 @@
         <v>178</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C68&amp;"""&gt;"&amp;B68&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="ne"&gt;ネパール語&lt;/option&gt;</v>
       </c>
       <c r="F68" s="2" t="str">
-        <f>"&lt;option value="""&amp;C68&amp;"""&gt;"&amp;D68&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="ne"&gt;Nepali&lt;/option&gt;</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>C68&amp;":"&amp;D68&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">ne:Nepali, </v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>C68&amp;":"&amp;B68&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">ne:ネパール語, </v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>61</v>
       </c>
@@ -3610,23 +3721,26 @@
         <v>181</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C69&amp;"""&gt;"&amp;B69&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="no"&gt;ノルウェー語&lt;/option&gt;</v>
       </c>
       <c r="F69" s="2" t="str">
-        <f>"&lt;option value="""&amp;C69&amp;"""&gt;"&amp;D69&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="no"&gt;Norwegian&lt;/option&gt;</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>C69&amp;":"&amp;D69&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">no:Norwegian, </v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>C69&amp;":"&amp;B69&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">no:ノルウェー語, </v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>77</v>
       </c>
@@ -3640,23 +3754,24 @@
         <v>229</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C70&amp;"""&gt;"&amp;B70&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="fa"&gt;ペルシャ語&lt;/option&gt;</v>
       </c>
       <c r="F70" s="2" t="str">
-        <f>"&lt;option value="""&amp;C70&amp;"""&gt;"&amp;D70&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="fa"&gt;Persian&lt;/option&gt;</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>C70&amp;":"&amp;D70&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">fa:Persian, </v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>C70&amp;":"&amp;B70&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">fa:ペルシャ語, </v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>79</v>
       </c>
@@ -3670,23 +3785,24 @@
         <v>235</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C71&amp;"""&gt;"&amp;B71&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="pl"&gt;ポーランド語&lt;/option&gt;</v>
       </c>
       <c r="F71" s="2" t="str">
-        <f>"&lt;option value="""&amp;C71&amp;"""&gt;"&amp;D71&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="pl"&gt;Polish&lt;/option&gt;</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>C71&amp;":"&amp;D71&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">pl:Polish, </v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>C71&amp;":"&amp;B71&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">pl:ポーランド語, </v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>81</v>
       </c>
@@ -3700,23 +3816,24 @@
         <v>241</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C72&amp;"""&gt;"&amp;B72&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="pt"&gt;ポルトガル語&lt;/option&gt;</v>
       </c>
       <c r="F72" s="2" t="str">
-        <f>"&lt;option value="""&amp;C72&amp;"""&gt;"&amp;D72&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="pt"&gt;Portuguese&lt;/option&gt;</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>C72&amp;":"&amp;D72&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">pt:Portuguese, </v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>C72&amp;":"&amp;B72&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">pt:ポルトガル語, </v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -3730,23 +3847,24 @@
         <v>202</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C73&amp;"""&gt;"&amp;B73&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="pa"&gt;パンジャブ語&lt;/option&gt;</v>
       </c>
       <c r="F73" s="2" t="str">
-        <f>"&lt;option value="""&amp;C73&amp;"""&gt;"&amp;D73&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="pa"&gt;Punjabi&lt;/option&gt;</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>C73&amp;":"&amp;D73&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">pa:Punjabi, </v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>C73&amp;":"&amp;B73&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">pa:パンジャブ語, </v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>64</v>
       </c>
@@ -3760,23 +3878,24 @@
         <v>190</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C74&amp;"""&gt;"&amp;B74&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="ps"&gt;パシュト語&lt;/option&gt;</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f>"&lt;option value="""&amp;C74&amp;"""&gt;"&amp;D74&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="ps"&gt;Pushto&lt;/option&gt;</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>C74&amp;":"&amp;D74&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">ps:Pushto, </v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>C74&amp;":"&amp;B74&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">ps:パシュト語, </v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>97</v>
       </c>
@@ -3790,23 +3909,24 @@
         <v>289</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C75&amp;"""&gt;"&amp;B75&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="ro"&gt;ルーマニア語&lt;/option&gt;</v>
       </c>
       <c r="F75" s="2" t="str">
-        <f>"&lt;option value="""&amp;C75&amp;"""&gt;"&amp;D75&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="ro"&gt;Romanian&lt;/option&gt;</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>C75&amp;":"&amp;D75&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">ro:Romanian, </v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>C75&amp;":"&amp;B75&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">ro:ルーマニア語, </v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>99</v>
       </c>
@@ -3820,23 +3940,24 @@
         <v>295</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C76&amp;"""&gt;"&amp;B76&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="ru"&gt;ロシア語&lt;/option&gt;</v>
       </c>
       <c r="F76" s="2" t="str">
-        <f>"&lt;option value="""&amp;C76&amp;"""&gt;"&amp;D76&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="ru"&gt;Russian&lt;/option&gt;</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>C76&amp;":"&amp;D76&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">ru:Russian, </v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>C76&amp;":"&amp;B76&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">ru:ロシア語, </v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>32</v>
       </c>
@@ -3850,23 +3971,24 @@
         <v>94</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C77&amp;"""&gt;"&amp;B77&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sm"&gt;サモア語&lt;/option&gt;</v>
       </c>
       <c r="F77" s="2" t="str">
-        <f>"&lt;option value="""&amp;C77&amp;"""&gt;"&amp;D77&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sm"&gt;Samoan&lt;/option&gt;</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>C77&amp;":"&amp;D77&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sm:Samoan, </v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>C77&amp;":"&amp;B77&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sm:サモア語, </v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>40</v>
       </c>
@@ -3880,23 +4002,24 @@
         <v>118</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C78&amp;"""&gt;"&amp;B78&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="gd"&gt;スコットランド ゲール語&lt;/option&gt;</v>
       </c>
       <c r="F78" s="2" t="str">
-        <f>"&lt;option value="""&amp;C78&amp;"""&gt;"&amp;D78&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="gd"&gt;Scottish Gaelic&lt;/option&gt;</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>C78&amp;":"&amp;D78&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">gd:Scottish Gaelic, </v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>C78&amp;":"&amp;B78&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">gd:スコットランド ゲール語, </v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>47</v>
       </c>
@@ -3910,23 +4033,24 @@
         <v>139</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C79&amp;"""&gt;"&amp;B79&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sr"&gt;セルビア語&lt;/option&gt;</v>
       </c>
       <c r="F79" s="2" t="str">
-        <f>"&lt;option value="""&amp;C79&amp;"""&gt;"&amp;D79&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sr"&gt;Serbian&lt;/option&gt;</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f>C79&amp;":"&amp;D79&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sr:Serbian, </v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>C79&amp;":"&amp;B79&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sr:セルビア語, </v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>35</v>
       </c>
@@ -3940,23 +4064,24 @@
         <v>103</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C80&amp;"""&gt;"&amp;B80&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sn"&gt;ショナ語&lt;/option&gt;</v>
       </c>
       <c r="F80" s="2" t="str">
-        <f>"&lt;option value="""&amp;C80&amp;"""&gt;"&amp;D80&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sn"&gt;Shona&lt;/option&gt;</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>C80&amp;":"&amp;D80&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sn:Shona, </v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>C80&amp;":"&amp;B80&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sn:ショナ語, </v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>36</v>
       </c>
@@ -3970,23 +4095,24 @@
         <v>106</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C81&amp;"""&gt;"&amp;B81&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sd"&gt;シンド語&lt;/option&gt;</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f>"&lt;option value="""&amp;C81&amp;"""&gt;"&amp;D81&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sd"&gt;Sindhi&lt;/option&gt;</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>C81&amp;":"&amp;D81&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sd:Sindhi, </v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>C81&amp;":"&amp;B81&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sd:シンド語, </v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>37</v>
       </c>
@@ -4000,23 +4126,24 @@
         <v>109</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C82&amp;"""&gt;"&amp;B82&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="si"&gt;シンハラ語&lt;/option&gt;</v>
       </c>
       <c r="F82" s="2" t="str">
-        <f>"&lt;option value="""&amp;C82&amp;"""&gt;"&amp;D82&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="si"&gt;Sinhala&lt;/option&gt;</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f>C82&amp;":"&amp;D82&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">si:Sinhala, </v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>C82&amp;":"&amp;B82&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">si:シンハラ語, </v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>42</v>
       </c>
@@ -4030,23 +4157,24 @@
         <v>124</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C83&amp;"""&gt;"&amp;B83&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sk"&gt;スロバキア語&lt;/option&gt;</v>
       </c>
       <c r="F83" s="2" t="str">
-        <f>"&lt;option value="""&amp;C83&amp;"""&gt;"&amp;D83&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sk"&gt;Slovak&lt;/option&gt;</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>C83&amp;":"&amp;D83&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sk:Slovak, </v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>C83&amp;":"&amp;B83&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sk:スロバキア語, </v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>43</v>
       </c>
@@ -4060,23 +4188,24 @@
         <v>127</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C84&amp;"""&gt;"&amp;B84&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sl"&gt;スロベニア語&lt;/option&gt;</v>
       </c>
       <c r="F84" s="2" t="str">
-        <f>"&lt;option value="""&amp;C84&amp;"""&gt;"&amp;D84&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sl"&gt;Slovenian&lt;/option&gt;</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>C84&amp;":"&amp;D84&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sl:Slovenian, </v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>C84&amp;":"&amp;B84&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sl:スロベニア語, </v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>49</v>
       </c>
@@ -4090,23 +4219,24 @@
         <v>145</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C85&amp;"""&gt;"&amp;B85&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="so"&gt;ソマリ語&lt;/option&gt;</v>
       </c>
       <c r="F85" s="2" t="str">
-        <f>"&lt;option value="""&amp;C85&amp;"""&gt;"&amp;D85&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="so"&gt;Somali&lt;/option&gt;</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>C85&amp;":"&amp;D85&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">so:Somali, </v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>C85&amp;":"&amp;B85&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">so:ソマリ語, </v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>48</v>
       </c>
@@ -4120,23 +4250,26 @@
         <v>142</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C86&amp;"""&gt;"&amp;B86&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sx"&gt;ソト語&lt;/option&gt;</v>
       </c>
       <c r="F86" s="2" t="str">
-        <f>"&lt;option value="""&amp;C86&amp;"""&gt;"&amp;D86&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sx"&gt;Sotho&lt;/option&gt;</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>C86&amp;":"&amp;D86&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sx:Sotho, </v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>C86&amp;":"&amp;B86&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sx:ソト語, </v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>41</v>
       </c>
@@ -4150,23 +4283,24 @@
         <v>121</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C87&amp;"""&gt;"&amp;B87&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="es"&gt;スペイン語&lt;/option&gt;</v>
       </c>
       <c r="F87" s="2" t="str">
-        <f>"&lt;option value="""&amp;C87&amp;"""&gt;"&amp;D87&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="es"&gt;Spanish&lt;/option&gt;</v>
       </c>
       <c r="G87" s="1" t="str">
-        <f>C87&amp;":"&amp;D87&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">es:Spanish, </v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>C87&amp;":"&amp;B87&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">es:スペイン語, </v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>45</v>
       </c>
@@ -4180,23 +4314,24 @@
         <v>133</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C88&amp;"""&gt;"&amp;B88&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="su"&gt;スンダ語&lt;/option&gt;</v>
       </c>
       <c r="F88" s="2" t="str">
-        <f>"&lt;option value="""&amp;C88&amp;"""&gt;"&amp;D88&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="su"&gt;Sundanese&lt;/option&gt;</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f>C88&amp;":"&amp;D88&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">su:Sundanese, </v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>C88&amp;":"&amp;B88&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">su:スンダ語, </v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>44</v>
       </c>
@@ -4210,23 +4345,24 @@
         <v>130</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C89&amp;"""&gt;"&amp;B89&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sw"&gt;スワヒリ語&lt;/option&gt;</v>
       </c>
       <c r="F89" s="2" t="str">
-        <f>"&lt;option value="""&amp;C89&amp;"""&gt;"&amp;D89&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sw"&gt;Swahili&lt;/option&gt;</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f>C89&amp;":"&amp;D89&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sw:Swahili, </v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>C89&amp;":"&amp;B89&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sw:スワヒリ語, </v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>38</v>
       </c>
@@ -4240,23 +4376,24 @@
         <v>112</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C90&amp;"""&gt;"&amp;B90&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="sv"&gt;スウェーデン語&lt;/option&gt;</v>
       </c>
       <c r="F90" s="2" t="str">
-        <f>"&lt;option value="""&amp;C90&amp;"""&gt;"&amp;D90&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="sv"&gt;Swedish&lt;/option&gt;</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f>C90&amp;":"&amp;D90&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">sv:Swedish, </v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>C90&amp;":"&amp;B90&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">sv:スウェーデン語, </v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>51</v>
       </c>
@@ -4270,23 +4407,26 @@
         <v>151</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C91&amp;"""&gt;"&amp;B91&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="tl"&gt;タガログ語&lt;/option&gt;</v>
       </c>
       <c r="F91" s="2" t="str">
-        <f>"&lt;option value="""&amp;C91&amp;"""&gt;"&amp;D91&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="tl"&gt;Tagalog&lt;/option&gt;</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f>C91&amp;":"&amp;D91&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">tl:Tagalog, </v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>C91&amp;":"&amp;B91&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">tl:タガログ語, </v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>52</v>
       </c>
@@ -4300,23 +4440,24 @@
         <v>154</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C92&amp;"""&gt;"&amp;B92&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="tg"&gt;タジク語&lt;/option&gt;</v>
       </c>
       <c r="F92" s="2" t="str">
-        <f>"&lt;option value="""&amp;C92&amp;"""&gt;"&amp;D92&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="tg"&gt;Tajiki&lt;/option&gt;</v>
       </c>
       <c r="G92" s="1" t="str">
-        <f>C92&amp;":"&amp;D92&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">tg:Tajiki, </v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>C92&amp;":"&amp;B92&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">tg:タジク語, </v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>53</v>
       </c>
@@ -4330,23 +4471,24 @@
         <v>157</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C93&amp;"""&gt;"&amp;B93&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="ta"&gt;タミル語&lt;/option&gt;</v>
       </c>
       <c r="F93" s="2" t="str">
-        <f>"&lt;option value="""&amp;C93&amp;"""&gt;"&amp;D93&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="ta"&gt;Tamil&lt;/option&gt;</v>
       </c>
       <c r="G93" s="1" t="str">
-        <f>C93&amp;":"&amp;D93&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">ta:Tamil, </v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>C93&amp;":"&amp;B93&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">ta:タミル語, </v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>56</v>
       </c>
@@ -4360,23 +4502,24 @@
         <v>166</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C94&amp;"""&gt;"&amp;B94&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="te"&gt;テルグ語&lt;/option&gt;</v>
       </c>
       <c r="F94" s="2" t="str">
-        <f>"&lt;option value="""&amp;C94&amp;"""&gt;"&amp;D94&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="te"&gt;Telugu&lt;/option&gt;</v>
       </c>
       <c r="G94" s="1" t="str">
-        <f>C94&amp;":"&amp;D94&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">te:Telugu, </v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>C94&amp;":"&amp;B94&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">te:テルグ語, </v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>50</v>
       </c>
@@ -4390,23 +4533,24 @@
         <v>148</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C95&amp;"""&gt;"&amp;B95&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="th"&gt;タイ語&lt;/option&gt;</v>
       </c>
       <c r="F95" s="2" t="str">
-        <f>"&lt;option value="""&amp;C95&amp;"""&gt;"&amp;D95&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="th"&gt;Thai&lt;/option&gt;</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f>C95&amp;":"&amp;D95&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">th:Thai, </v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>C95&amp;":"&amp;B95&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">th:タイ語, </v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>59</v>
       </c>
@@ -4420,23 +4564,24 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C96&amp;"""&gt;"&amp;B96&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="tr"&gt;トルコ語&lt;/option&gt;</v>
       </c>
       <c r="F96" s="2" t="str">
-        <f>"&lt;option value="""&amp;C96&amp;"""&gt;"&amp;D96&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="tr"&gt;Turkish&lt;/option&gt;</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f>C96&amp;":"&amp;D96&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">tr:Turkish, </v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>C96&amp;":"&amp;B96&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">tr:トルコ語, </v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>14</v>
       </c>
@@ -4450,23 +4595,24 @@
         <v>41</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C97&amp;"""&gt;"&amp;B97&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;optionvalue="uk"&gt;ウクライナ語&lt;/option&gt;</v>
       </c>
       <c r="F97" s="2" t="str">
-        <f>"&lt;option value="""&amp;C97&amp;"""&gt;"&amp;D97&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="9"/>
         <v>&lt;option value="uk"&gt;Ukrainian&lt;/option&gt;</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f>C97&amp;":"&amp;D97&amp;", "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">uk:Ukrainian, </v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>C97&amp;":"&amp;B97&amp;", "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">uk:ウクライナ語, </v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>16</v>
       </c>
@@ -4480,23 +4626,24 @@
         <v>47</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C98&amp;"""&gt;"&amp;B98&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="E98:E105" si="12">"&lt;optionvalue="""&amp;C98&amp;"""&gt;"&amp;B98&amp;"&lt;/option&gt;"</f>
         <v>&lt;optionvalue="ur"&gt;ウルドゥ語&lt;/option&gt;</v>
       </c>
       <c r="F98" s="2" t="str">
-        <f>"&lt;option value="""&amp;C98&amp;"""&gt;"&amp;D98&amp;"&lt;/option&gt;"</f>
+        <f t="shared" ref="F98:F105" si="13">"&lt;option value="""&amp;C98&amp;"""&gt;"&amp;D98&amp;"&lt;/option&gt;"</f>
         <v>&lt;option value="ur"&gt;Urdu&lt;/option&gt;</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>C98&amp;":"&amp;D98&amp;", "</f>
+        <f t="shared" ref="G98:G105" si="14">C98&amp;":"&amp;D98&amp;", "</f>
         <v xml:space="preserve">ur:Urdu, </v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>C98&amp;":"&amp;B98&amp;", "</f>
+        <f t="shared" ref="H98:H105" si="15">C98&amp;":"&amp;B98&amp;", "</f>
         <v xml:space="preserve">ur:ウルドゥ語, </v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>15</v>
       </c>
@@ -4510,23 +4657,24 @@
         <v>44</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C99&amp;"""&gt;"&amp;B99&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="uz"&gt;ウズベク語&lt;/option&gt;</v>
       </c>
       <c r="F99" s="2" t="str">
-        <f>"&lt;option value="""&amp;C99&amp;"""&gt;"&amp;D99&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="uz"&gt;Uzbek&lt;/option&gt;</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f>C99&amp;":"&amp;D99&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">uz:Uzbek, </v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>C99&amp;":"&amp;B99&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">uz:ウズベク語, </v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>74</v>
       </c>
@@ -4540,23 +4688,24 @@
         <v>220</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C100&amp;"""&gt;"&amp;B100&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="vi"&gt;ベトナム語&lt;/option&gt;</v>
       </c>
       <c r="F100" s="2" t="str">
-        <f>"&lt;option value="""&amp;C100&amp;"""&gt;"&amp;D100&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="vi"&gt;Vietnamese&lt;/option&gt;</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f>C100&amp;":"&amp;D100&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">vi:Vietnamese, </v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>C100&amp;":"&amp;B100&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">vi:ベトナム語, </v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>13</v>
       </c>
@@ -4570,23 +4719,24 @@
         <v>38</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C101&amp;"""&gt;"&amp;B101&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="cy"&gt;ウェールズ語&lt;/option&gt;</v>
       </c>
       <c r="F101" s="2" t="str">
-        <f>"&lt;option value="""&amp;C101&amp;"""&gt;"&amp;D101&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="cy"&gt;Welsh&lt;/option&gt;</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f>C101&amp;":"&amp;D101&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">cy:Welsh, </v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>C101&amp;":"&amp;B101&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">cy:ウェールズ語, </v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>30</v>
       </c>
@@ -4600,23 +4750,24 @@
         <v>88</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C102&amp;"""&gt;"&amp;B102&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="xh"&gt;コーサ語&lt;/option&gt;</v>
       </c>
       <c r="F102" s="2" t="str">
-        <f>"&lt;option value="""&amp;C102&amp;"""&gt;"&amp;D102&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="xh"&gt;Xosa&lt;/option&gt;</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f>C102&amp;":"&amp;D102&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">xh:Xosa, </v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>C102&amp;":"&amp;B102&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">xh:コーサ語, </v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>10</v>
       </c>
@@ -4630,23 +4781,24 @@
         <v>29</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C103&amp;"""&gt;"&amp;B103&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="yi"&gt;イディッシュ語&lt;/option&gt;</v>
       </c>
       <c r="F103" s="2" t="str">
-        <f>"&lt;option value="""&amp;C103&amp;"""&gt;"&amp;D103&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="yi"&gt;Yiddish&lt;/option&gt;</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f>C103&amp;":"&amp;D103&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">yi:Yiddish, </v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>C103&amp;":"&amp;B103&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">yi:イディッシュ語, </v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>92</v>
       </c>
@@ -4660,23 +4812,24 @@
         <v>274</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C104&amp;"""&gt;"&amp;B104&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="yo"&gt;ヨルバ語&lt;/option&gt;</v>
       </c>
       <c r="F104" s="2" t="str">
-        <f>"&lt;option value="""&amp;C104&amp;"""&gt;"&amp;D104&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="yo"&gt;Yoruba&lt;/option&gt;</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f>C104&amp;":"&amp;D104&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">yo:Yoruba, </v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>C104&amp;":"&amp;B104&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">yo:ヨルバ語, </v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>39</v>
       </c>
@@ -4690,21 +4843,22 @@
         <v>115</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f>"&lt;optionvalue="""&amp;C105&amp;"""&gt;"&amp;B105&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="12"/>
         <v>&lt;optionvalue="zu"&gt;ズールー語&lt;/option&gt;</v>
       </c>
       <c r="F105" s="2" t="str">
-        <f>"&lt;option value="""&amp;C105&amp;"""&gt;"&amp;D105&amp;"&lt;/option&gt;"</f>
+        <f t="shared" si="13"/>
         <v>&lt;option value="zu"&gt;Zulu&lt;/option&gt;</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f>C105&amp;":"&amp;D105&amp;", "</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">zu:Zulu, </v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>C105&amp;":"&amp;B105&amp;", "</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">zu:ズールー語, </v>
       </c>
+      <c r="I105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
